--- a/database/steel_data_0310_domestic.xlsx
+++ b/database/steel_data_0310_domestic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B74A3-97A2-464A-BF83-10149F640984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E8D9F-8189-E740-8E15-DB690E1A1D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" firstSheet="1" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2511,82 +2511,82 @@
         <v>55</v>
       </c>
       <c r="B12" s="16">
-        <v>35000</v>
+        <v>90716.67</v>
       </c>
       <c r="C12" s="16">
-        <v>34230</v>
+        <v>89675</v>
       </c>
       <c r="D12" s="16">
-        <v>33460</v>
+        <v>87975</v>
       </c>
       <c r="E12" s="16">
-        <v>32690</v>
+        <v>89741.67</v>
       </c>
       <c r="F12" s="16">
-        <v>31920</v>
+        <v>89800</v>
       </c>
       <c r="G12" s="16">
-        <v>31150</v>
+        <v>86400</v>
       </c>
       <c r="H12" s="16">
-        <v>30356.67</v>
+        <v>83208.33</v>
       </c>
       <c r="I12" s="16">
-        <v>29563.33</v>
+        <v>80783.33</v>
       </c>
       <c r="J12" s="16">
-        <v>28770</v>
+        <v>78908.33</v>
       </c>
       <c r="K12" s="16">
-        <v>27976.67</v>
+        <v>78433.33</v>
       </c>
       <c r="L12" s="16">
-        <v>27183.33</v>
+        <v>77441.67</v>
       </c>
       <c r="M12" s="16">
-        <v>26413.33</v>
+        <v>76391.67</v>
       </c>
       <c r="N12" s="16">
-        <v>25643.33</v>
+        <v>71533.33</v>
       </c>
       <c r="O12" s="16">
-        <v>24873.33</v>
+        <v>68441.67</v>
       </c>
       <c r="P12" s="16">
-        <v>24103.33</v>
+        <v>65491.67</v>
       </c>
       <c r="Q12" s="16">
-        <v>23333.33</v>
+        <v>62683.33</v>
       </c>
       <c r="R12" s="16">
-        <v>22563.33</v>
+        <v>60000</v>
       </c>
       <c r="S12" s="16">
-        <v>21793.33</v>
+        <v>57441.67</v>
       </c>
       <c r="T12" s="16">
-        <v>21023.33</v>
+        <v>55000</v>
       </c>
       <c r="U12" s="16">
-        <v>20253.330000000002</v>
+        <v>52666.67</v>
       </c>
       <c r="V12" s="16">
-        <v>19483.330000000002</v>
+        <v>50441.67</v>
       </c>
       <c r="W12" s="16">
-        <v>19086.669999999998</v>
+        <v>48316.67</v>
       </c>
       <c r="X12" s="16">
-        <v>18690</v>
+        <v>46275</v>
       </c>
       <c r="Y12" s="16">
-        <v>18293.330000000002</v>
+        <v>44325</v>
       </c>
       <c r="Z12" s="16">
-        <v>17896.669999999998</v>
+        <v>42458.33</v>
       </c>
       <c r="AA12" s="16">
-        <v>17500</v>
+        <v>40675</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -2597,104 +2597,79 @@
         <v>32481</v>
       </c>
       <c r="C13" s="16">
-        <f>B13*1.05</f>
-        <v>34105.050000000003</v>
+        <v>32481</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" ref="D13:AA14" si="24">C13*1.05</f>
-        <v>35810.302500000005</v>
+        <v>32481</v>
       </c>
       <c r="E13" s="16">
-        <f t="shared" si="24"/>
-        <v>37600.817625000011</v>
+        <v>32481</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="24"/>
-        <v>39480.858506250013</v>
+        <v>32481</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="24"/>
-        <v>41454.901431562517</v>
+        <v>32481</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="24"/>
-        <v>43527.646503140648</v>
+        <v>32481</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="24"/>
-        <v>45704.028828297684</v>
+        <v>32481</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" si="24"/>
-        <v>47989.230269712571</v>
+        <v>32481</v>
       </c>
       <c r="K13" s="16">
-        <f t="shared" si="24"/>
-        <v>50388.691783198199</v>
+        <v>32481</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="24"/>
-        <v>52908.126372358114</v>
+        <v>32481</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" si="24"/>
-        <v>55553.532690976019</v>
+        <v>32481</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="24"/>
-        <v>58331.209325524826</v>
+        <v>32481</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="24"/>
-        <v>61247.769791801067</v>
+        <v>32481</v>
       </c>
       <c r="P13" s="16">
-        <f t="shared" si="24"/>
-        <v>64310.158281391123</v>
+        <v>32481</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="24"/>
-        <v>67525.666195460683</v>
+        <v>32481</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" si="24"/>
-        <v>70901.949505233715</v>
+        <v>32481</v>
       </c>
       <c r="S13" s="16">
-        <f t="shared" si="24"/>
-        <v>74447.046980495405</v>
+        <v>32481</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="24"/>
-        <v>78169.39932952018</v>
+        <v>32481</v>
       </c>
       <c r="U13" s="16">
-        <f t="shared" si="24"/>
-        <v>82077.869295996192</v>
+        <v>32481</v>
       </c>
       <c r="V13" s="16">
-        <f t="shared" si="24"/>
-        <v>86181.762760796002</v>
+        <v>32481</v>
       </c>
       <c r="W13" s="16">
-        <f t="shared" si="24"/>
-        <v>90490.850898835808</v>
+        <v>32481</v>
       </c>
       <c r="X13" s="16">
-        <f t="shared" si="24"/>
-        <v>95015.393443777604</v>
+        <v>32481</v>
       </c>
       <c r="Y13" s="16">
-        <f t="shared" si="24"/>
-        <v>99766.163115966483</v>
+        <v>32481</v>
       </c>
       <c r="Z13" s="16">
-        <f t="shared" si="24"/>
-        <v>104754.47127176481</v>
+        <v>32481</v>
       </c>
       <c r="AA13" s="16">
-        <f t="shared" si="24"/>
-        <v>109992.19483535305</v>
+        <v>32481</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -2705,104 +2680,79 @@
         <v>32481</v>
       </c>
       <c r="C14" s="16">
-        <f>B14*1.05</f>
-        <v>34105.050000000003</v>
+        <v>32481</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="24"/>
-        <v>35810.302500000005</v>
+        <v>32481</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" si="24"/>
-        <v>37600.817625000011</v>
+        <v>32481</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="24"/>
-        <v>39480.858506250013</v>
+        <v>32481</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="24"/>
-        <v>41454.901431562517</v>
+        <v>32481</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="24"/>
-        <v>43527.646503140648</v>
+        <v>32481</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="24"/>
-        <v>45704.028828297684</v>
+        <v>32481</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="24"/>
-        <v>47989.230269712571</v>
+        <v>32481</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" si="24"/>
-        <v>50388.691783198199</v>
+        <v>32481</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="24"/>
-        <v>52908.126372358114</v>
+        <v>32481</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="24"/>
-        <v>55553.532690976019</v>
+        <v>32481</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="24"/>
-        <v>58331.209325524826</v>
+        <v>32481</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="24"/>
-        <v>61247.769791801067</v>
+        <v>32481</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="24"/>
-        <v>64310.158281391123</v>
+        <v>32481</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="24"/>
-        <v>67525.666195460683</v>
+        <v>32481</v>
       </c>
       <c r="R14" s="16">
-        <f t="shared" si="24"/>
-        <v>70901.949505233715</v>
+        <v>32481</v>
       </c>
       <c r="S14" s="16">
-        <f t="shared" si="24"/>
-        <v>74447.046980495405</v>
+        <v>32481</v>
       </c>
       <c r="T14" s="16">
-        <f t="shared" si="24"/>
-        <v>78169.39932952018</v>
+        <v>32481</v>
       </c>
       <c r="U14" s="16">
-        <f t="shared" si="24"/>
-        <v>82077.869295996192</v>
+        <v>32481</v>
       </c>
       <c r="V14" s="16">
-        <f t="shared" si="24"/>
-        <v>86181.762760796002</v>
+        <v>32481</v>
       </c>
       <c r="W14" s="16">
-        <f t="shared" si="24"/>
-        <v>90490.850898835808</v>
+        <v>32481</v>
       </c>
       <c r="X14" s="16">
-        <f t="shared" si="24"/>
-        <v>95015.393443777604</v>
+        <v>32481</v>
       </c>
       <c r="Y14" s="16">
-        <f t="shared" si="24"/>
-        <v>99766.163115966483</v>
+        <v>32481</v>
       </c>
       <c r="Z14" s="16">
-        <f t="shared" si="24"/>
-        <v>104754.47127176481</v>
+        <v>32481</v>
       </c>
       <c r="AA14" s="16">
-        <f t="shared" si="24"/>
-        <v>109992.19483535305</v>
+        <v>32481</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">

--- a/database/steel_data_0310_domestic.xlsx
+++ b/database/steel_data_0310_domestic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167E8D9F-8189-E740-8E15-DB690E1A1D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02487F73-4C53-4044-BBE7-BDC27E75200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" firstSheet="1" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" firstSheet="1" activeTab="16" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -1534,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7002,7 +7002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/database/steel_data_0310_domestic.xlsx
+++ b/database/steel_data_0310_domestic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02487F73-4C53-4044-BBE7-BDC27E75200B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099496EA-CFAC-9941-8C3C-89D056FCD4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" firstSheet="1" activeTab="16" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" firstSheet="1" activeTab="3" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -7002,8 +7002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9731,8 +9731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
